--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Spp1-Itgav.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Spp1-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H2">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I2">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J2">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N2">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q2">
-        <v>96.9819480933443</v>
+        <v>14.14205662079767</v>
       </c>
       <c r="R2">
-        <v>96.9819480933443</v>
+        <v>127.278509587179</v>
       </c>
       <c r="S2">
-        <v>0.0001640135523733714</v>
+        <v>2.148262598233129E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001640135523733714</v>
+        <v>2.148262598233129E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H3">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I3">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J3">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N3">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P3">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q3">
-        <v>1472.994159275995</v>
+        <v>100.9359245193503</v>
       </c>
       <c r="R3">
-        <v>1472.994159275995</v>
+        <v>908.423320674153</v>
       </c>
       <c r="S3">
-        <v>0.002491092511933812</v>
+        <v>0.0001533276787649943</v>
       </c>
       <c r="T3">
-        <v>0.002491092511933812</v>
+        <v>0.0001533276787649943</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H4">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I4">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J4">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N4">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q4">
-        <v>1310.479706486195</v>
+        <v>98.70566809023801</v>
       </c>
       <c r="R4">
-        <v>1310.479706486195</v>
+        <v>888.351012812142</v>
       </c>
       <c r="S4">
-        <v>0.002216251954097061</v>
+        <v>0.0001499397864664406</v>
       </c>
       <c r="T4">
-        <v>0.002216251954097061</v>
+        <v>0.0001499397864664406</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H5">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I5">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J5">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N5">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q5">
-        <v>1637.204105777348</v>
+        <v>112.7894736809984</v>
       </c>
       <c r="R5">
-        <v>1637.204105777348</v>
+        <v>1015.105263128985</v>
       </c>
       <c r="S5">
-        <v>0.002768800448206712</v>
+        <v>0.0001713339256660548</v>
       </c>
       <c r="T5">
-        <v>0.002768800448206712</v>
+        <v>0.0001713339256660548</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H6">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I6">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J6">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N6">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q6">
-        <v>626.2430455179501</v>
+        <v>42.84869062426967</v>
       </c>
       <c r="R6">
-        <v>626.2430455179501</v>
+        <v>385.638215618427</v>
       </c>
       <c r="S6">
-        <v>0.001059087268959149</v>
+        <v>6.508971213989459E-05</v>
       </c>
       <c r="T6">
-        <v>0.001059087268959149</v>
+        <v>6.508971213989459E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H7">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I7">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J7">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N7">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q7">
-        <v>398.6010230819255</v>
+        <v>28.79182538074534</v>
       </c>
       <c r="R7">
-        <v>398.6010230819255</v>
+        <v>259.126428426708</v>
       </c>
       <c r="S7">
-        <v>0.0006741045221364599</v>
+        <v>4.373649693167881E-05</v>
       </c>
       <c r="T7">
-        <v>0.0006741045221364599</v>
+        <v>4.373649693167881E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H8">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I8">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J8">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N8">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q8">
-        <v>4110.065232911327</v>
+        <v>226.9662556819216</v>
       </c>
       <c r="R8">
-        <v>4110.065232911327</v>
+        <v>2042.696301137295</v>
       </c>
       <c r="S8">
-        <v>0.006950844075510354</v>
+        <v>0.0003447752552662231</v>
       </c>
       <c r="T8">
-        <v>0.006950844075510354</v>
+        <v>0.0003447752552662232</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H9">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I9">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J9">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N9">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P9">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q9">
-        <v>62425.04096220769</v>
+        <v>1619.923428835618</v>
       </c>
       <c r="R9">
-        <v>62425.04096220769</v>
+        <v>14579.31085952056</v>
       </c>
       <c r="S9">
-        <v>0.1055717370763721</v>
+        <v>0.002460760133749794</v>
       </c>
       <c r="T9">
-        <v>0.1055717370763721</v>
+        <v>0.002460760133749795</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H10">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I10">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J10">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N10">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q10">
-        <v>55537.72826753926</v>
+        <v>1584.12998206199</v>
       </c>
       <c r="R10">
-        <v>55537.72826753926</v>
+        <v>14257.16983855791</v>
       </c>
       <c r="S10">
-        <v>0.09392407848044919</v>
+        <v>0.002406387757066935</v>
       </c>
       <c r="T10">
-        <v>0.09392407848044919</v>
+        <v>0.002406387757066935</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H11">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I11">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J11">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N11">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q11">
-        <v>69384.20816066241</v>
+        <v>1810.161365360658</v>
       </c>
       <c r="R11">
-        <v>69384.20816066241</v>
+        <v>16291.45228824592</v>
       </c>
       <c r="S11">
-        <v>0.1173409142914989</v>
+        <v>0.002749742885523518</v>
       </c>
       <c r="T11">
-        <v>0.1173409142914989</v>
+        <v>0.002749742885523519</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H12">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I12">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J12">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N12">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q12">
-        <v>26539.98831059236</v>
+        <v>687.6798143744816</v>
       </c>
       <c r="R12">
-        <v>26539.98831059236</v>
+        <v>6189.118329370334</v>
       </c>
       <c r="S12">
-        <v>0.04488379382293248</v>
+        <v>0.001044626580414068</v>
       </c>
       <c r="T12">
-        <v>0.04488379382293248</v>
+        <v>0.001044626580414068</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H13">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I13">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J13">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N13">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q13">
-        <v>16892.58917747332</v>
+        <v>462.0807974495933</v>
       </c>
       <c r="R13">
-        <v>16892.58917747332</v>
+        <v>4158.727177046339</v>
       </c>
       <c r="S13">
-        <v>0.0285683430189985</v>
+        <v>0.0007019282422210446</v>
       </c>
       <c r="T13">
-        <v>0.0285683430189985</v>
+        <v>0.0007019282422210448</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H14">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I14">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J14">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N14">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q14">
-        <v>2039.746101383196</v>
+        <v>9669.340621879748</v>
       </c>
       <c r="R14">
-        <v>2039.746101383196</v>
+        <v>87024.06559691773</v>
       </c>
       <c r="S14">
-        <v>0.003449569848871206</v>
+        <v>0.0146883040879728</v>
       </c>
       <c r="T14">
-        <v>0.003449569848871206</v>
+        <v>0.01468830408797281</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H15">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I15">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J15">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N15">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P15">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q15">
-        <v>30980.34379399753</v>
+        <v>69012.86434722907</v>
       </c>
       <c r="R15">
-        <v>30980.34379399753</v>
+        <v>621115.7791250617</v>
       </c>
       <c r="S15">
-        <v>0.05239321687486889</v>
+        <v>0.1048346497609529</v>
       </c>
       <c r="T15">
-        <v>0.05239321687486889</v>
+        <v>0.1048346497609529</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H16">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I16">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J16">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N16">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q16">
-        <v>27562.30334406386</v>
+        <v>67487.97234138672</v>
       </c>
       <c r="R16">
-        <v>27562.30334406386</v>
+        <v>607391.7510724805</v>
       </c>
       <c r="S16">
-        <v>0.04661270857027267</v>
+        <v>0.1025182480166137</v>
       </c>
       <c r="T16">
-        <v>0.04661270857027267</v>
+        <v>0.1025182480166138</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H17">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I17">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J17">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N17">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q17">
-        <v>34434.04424825211</v>
+        <v>77117.48501842725</v>
       </c>
       <c r="R17">
-        <v>34434.04424825211</v>
+        <v>694057.3651658453</v>
       </c>
       <c r="S17">
-        <v>0.0582340325263612</v>
+        <v>0.1171460510851402</v>
       </c>
       <c r="T17">
-        <v>0.0582340325263612</v>
+        <v>0.1171460510851403</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H18">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I18">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J18">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N18">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q18">
-        <v>13171.28430317891</v>
+        <v>29296.91175456766</v>
       </c>
       <c r="R18">
-        <v>13171.28430317891</v>
+        <v>263672.205791109</v>
       </c>
       <c r="S18">
-        <v>0.02227496116911117</v>
+        <v>0.04450375320483217</v>
       </c>
       <c r="T18">
-        <v>0.02227496116911117</v>
+        <v>0.04450375320483217</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H19">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I19">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J19">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N19">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q19">
-        <v>8383.466189565113</v>
+        <v>19685.81898637643</v>
       </c>
       <c r="R19">
-        <v>8383.466189565113</v>
+        <v>177172.3708773879</v>
       </c>
       <c r="S19">
-        <v>0.01417791762266106</v>
+        <v>0.02990393107451351</v>
       </c>
       <c r="T19">
-        <v>0.01417791762266106</v>
+        <v>0.02990393107451351</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H20">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I20">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J20">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N20">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q20">
-        <v>3856.730933736318</v>
+        <v>4471.153615879128</v>
       </c>
       <c r="R20">
-        <v>3856.730933736318</v>
+        <v>40240.38254291216</v>
       </c>
       <c r="S20">
-        <v>0.006522411164411064</v>
+        <v>0.006791948541502992</v>
       </c>
       <c r="T20">
-        <v>0.006522411164411064</v>
+        <v>0.006791948541502993</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H21">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I21">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J21">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N21">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P21">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q21">
-        <v>58577.31517029121</v>
+        <v>31911.9089951247</v>
       </c>
       <c r="R21">
-        <v>58577.31517029121</v>
+        <v>287207.1809561223</v>
       </c>
       <c r="S21">
-        <v>0.09906455519254913</v>
+        <v>0.04847608970227625</v>
       </c>
       <c r="T21">
-        <v>0.09906455519254913</v>
+        <v>0.04847608970227626</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H22">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I22">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J22">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N22">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q22">
-        <v>52114.51946886453</v>
+        <v>31206.7909656368</v>
       </c>
       <c r="R22">
-        <v>52114.51946886453</v>
+        <v>280861.1186907312</v>
       </c>
       <c r="S22">
-        <v>0.0881348295880055</v>
+        <v>0.04740497343488623</v>
       </c>
       <c r="T22">
-        <v>0.0881348295880055</v>
+        <v>0.04740497343488623</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H23">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I23">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J23">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N23">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q23">
-        <v>65107.53644084554</v>
+        <v>35659.52793176238</v>
       </c>
       <c r="R23">
-        <v>65107.53644084554</v>
+        <v>320935.7513858614</v>
       </c>
       <c r="S23">
-        <v>0.1101083093078706</v>
+        <v>0.05416894598894188</v>
       </c>
       <c r="T23">
-        <v>0.1101083093078706</v>
+        <v>0.05416894598894189</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H24">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I24">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J24">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N24">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q24">
-        <v>24904.12879066588</v>
+        <v>13547.0450414293</v>
       </c>
       <c r="R24">
-        <v>24904.12879066588</v>
+        <v>121923.4053728637</v>
       </c>
       <c r="S24">
-        <v>0.04211726730617597</v>
+        <v>0.02057876796807834</v>
       </c>
       <c r="T24">
-        <v>0.04211726730617597</v>
+        <v>0.02057876796807834</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H25">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I25">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J25">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N25">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q25">
-        <v>15851.37158164085</v>
+        <v>9102.825537380639</v>
       </c>
       <c r="R25">
-        <v>15851.37158164085</v>
+        <v>81925.42983642576</v>
       </c>
       <c r="S25">
-        <v>0.0268074607100375</v>
+        <v>0.01382773394602151</v>
       </c>
       <c r="T25">
-        <v>0.0268074607100375</v>
+        <v>0.01382773394602151</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>52.0757428876562</v>
+        <v>843.4949546666667</v>
       </c>
       <c r="H26">
-        <v>52.0757428876562</v>
+        <v>2530.484864</v>
       </c>
       <c r="I26">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="J26">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N26">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q26">
-        <v>243.0376243029192</v>
+        <v>8435.919847029518</v>
       </c>
       <c r="R26">
-        <v>243.0376243029192</v>
+        <v>75923.27862326567</v>
       </c>
       <c r="S26">
-        <v>0.000411019420685799</v>
+        <v>0.01281466449682753</v>
       </c>
       <c r="T26">
-        <v>0.000411019420685799</v>
+        <v>0.01281466449682753</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>52.0757428876562</v>
+        <v>843.4949546666667</v>
       </c>
       <c r="H27">
-        <v>52.0757428876562</v>
+        <v>2530.484864</v>
       </c>
       <c r="I27">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="J27">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N27">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P27">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q27">
-        <v>3691.336461275746</v>
+        <v>60209.58561846245</v>
       </c>
       <c r="R27">
-        <v>3691.336461275746</v>
+        <v>541886.2705661621</v>
       </c>
       <c r="S27">
-        <v>0.006242699986150665</v>
+        <v>0.09146194525132832</v>
       </c>
       <c r="T27">
-        <v>0.006242699986150665</v>
+        <v>0.09146194525132836</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>52.0757428876562</v>
+        <v>843.4949546666667</v>
       </c>
       <c r="H28">
-        <v>52.0757428876562</v>
+        <v>2530.484864</v>
       </c>
       <c r="I28">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="J28">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N28">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q28">
-        <v>3284.073797476642</v>
+        <v>58879.20878722808</v>
       </c>
       <c r="R28">
-        <v>3284.073797476642</v>
+        <v>529912.8790850526</v>
       </c>
       <c r="S28">
-        <v>0.005553947104279887</v>
+        <v>0.08944102363806476</v>
       </c>
       <c r="T28">
-        <v>0.005553947104279887</v>
+        <v>0.08944102363806479</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>52.0757428876562</v>
+        <v>843.4949546666667</v>
       </c>
       <c r="H29">
-        <v>52.0757428876562</v>
+        <v>2530.484864</v>
       </c>
       <c r="I29">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="J29">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N29">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q29">
-        <v>4102.848047392638</v>
+        <v>67280.38114076509</v>
       </c>
       <c r="R29">
-        <v>4102.848047392638</v>
+        <v>605523.4302668858</v>
       </c>
       <c r="S29">
-        <v>0.00693863854387968</v>
+        <v>0.1022029046235163</v>
       </c>
       <c r="T29">
-        <v>0.00693863854387968</v>
+        <v>0.1022029046235164</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>52.0757428876562</v>
+        <v>843.4949546666667</v>
       </c>
       <c r="H30">
-        <v>52.0757428876562</v>
+        <v>2530.484864</v>
       </c>
       <c r="I30">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="J30">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N30">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q30">
-        <v>1569.37064073425</v>
+        <v>25559.7986451928</v>
       </c>
       <c r="R30">
-        <v>1569.37064073425</v>
+        <v>230038.1878067352</v>
       </c>
       <c r="S30">
-        <v>0.002654082113606904</v>
+        <v>0.03882685589526398</v>
       </c>
       <c r="T30">
-        <v>0.002654082113606904</v>
+        <v>0.03882685589526399</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>843.4949546666667</v>
+      </c>
+      <c r="H31">
+        <v>2530.484864</v>
+      </c>
+      <c r="I31">
+        <v>0.3608367805054546</v>
+      </c>
+      <c r="J31">
+        <v>0.3608367805054546</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>20.36135066666667</v>
+      </c>
+      <c r="N31">
+        <v>61.084052</v>
+      </c>
+      <c r="O31">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="P31">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="Q31">
+        <v>17174.6965575321</v>
+      </c>
+      <c r="R31">
+        <v>154572.2690177889</v>
+      </c>
+      <c r="S31">
+        <v>0.02608938660045361</v>
+      </c>
+      <c r="T31">
+        <v>0.02608938660045361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>56.118235</v>
+      </c>
+      <c r="H32">
+        <v>168.354705</v>
+      </c>
+      <c r="I32">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J32">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10.00115033333333</v>
+      </c>
+      <c r="N32">
+        <v>30.003451</v>
+      </c>
+      <c r="O32">
+        <v>0.03551374247070085</v>
+      </c>
+      <c r="P32">
+        <v>0.03551374247070086</v>
+      </c>
+      <c r="Q32">
+        <v>561.2469046763283</v>
+      </c>
+      <c r="R32">
+        <v>5051.222142086956</v>
+      </c>
+      <c r="S32">
+        <v>0.0008525674631489798</v>
+      </c>
+      <c r="T32">
+        <v>0.0008525674631489801</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>56.118235</v>
+      </c>
+      <c r="H33">
+        <v>168.354705</v>
+      </c>
+      <c r="I33">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J33">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>71.38108566666666</v>
+      </c>
+      <c r="N33">
+        <v>214.143257</v>
+      </c>
+      <c r="O33">
+        <v>0.253471791659403</v>
+      </c>
+      <c r="P33">
+        <v>0.2534717916594031</v>
+      </c>
+      <c r="Q33">
+        <v>4005.780539997131</v>
+      </c>
+      <c r="R33">
+        <v>36052.02485997418</v>
+      </c>
+      <c r="S33">
+        <v>0.006085019132330811</v>
+      </c>
+      <c r="T33">
+        <v>0.006085019132330814</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>56.118235</v>
+      </c>
+      <c r="H34">
+        <v>168.354705</v>
+      </c>
+      <c r="I34">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J34">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>69.803866</v>
+      </c>
+      <c r="N34">
+        <v>209.411598</v>
+      </c>
+      <c r="O34">
+        <v>0.2478711386150191</v>
+      </c>
+      <c r="P34">
+        <v>0.2478711386150191</v>
+      </c>
+      <c r="Q34">
+        <v>3917.26975609651</v>
+      </c>
+      <c r="R34">
+        <v>35255.42780486859</v>
+      </c>
+      <c r="S34">
+        <v>0.005950565981921012</v>
+      </c>
+      <c r="T34">
+        <v>0.005950565981921014</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>56.118235</v>
+      </c>
+      <c r="H35">
+        <v>168.354705</v>
+      </c>
+      <c r="I35">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J35">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>79.76382166666667</v>
+      </c>
+      <c r="N35">
+        <v>239.291465</v>
+      </c>
+      <c r="O35">
+        <v>0.2832386002345773</v>
+      </c>
+      <c r="P35">
+        <v>0.2832386002345773</v>
+      </c>
+      <c r="Q35">
+        <v>4476.204888788092</v>
+      </c>
+      <c r="R35">
+        <v>40285.84399909282</v>
+      </c>
+      <c r="S35">
+        <v>0.00679962172578924</v>
+      </c>
+      <c r="T35">
+        <v>0.006799621725789243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>52.0757428876562</v>
-      </c>
-      <c r="H31">
-        <v>52.0757428876562</v>
-      </c>
-      <c r="I31">
-        <v>0.02348969909533606</v>
-      </c>
-      <c r="J31">
-        <v>0.02348969909533606</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>19.1816314638186</v>
-      </c>
-      <c r="N31">
-        <v>19.1816314638186</v>
-      </c>
-      <c r="O31">
-        <v>0.07191713780056665</v>
-      </c>
-      <c r="P31">
-        <v>0.07191713780056665</v>
-      </c>
-      <c r="Q31">
-        <v>998.8977082755938</v>
-      </c>
-      <c r="R31">
-        <v>998.8977082755938</v>
-      </c>
-      <c r="S31">
-        <v>0.001689311926733129</v>
-      </c>
-      <c r="T31">
-        <v>0.001689311926733129</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>56.118235</v>
+      </c>
+      <c r="H36">
+        <v>168.354705</v>
+      </c>
+      <c r="I36">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J36">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>30.30225433333333</v>
+      </c>
+      <c r="N36">
+        <v>90.906763</v>
+      </c>
+      <c r="O36">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="P36">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="Q36">
+        <v>1700.509029707768</v>
+      </c>
+      <c r="R36">
+        <v>15304.58126736991</v>
+      </c>
+      <c r="S36">
+        <v>0.002583174459297884</v>
+      </c>
+      <c r="T36">
+        <v>0.002583174459297884</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>56.118235</v>
+      </c>
+      <c r="H37">
+        <v>168.354705</v>
+      </c>
+      <c r="I37">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J37">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>20.36135066666667</v>
+      </c>
+      <c r="N37">
+        <v>61.084052</v>
+      </c>
+      <c r="O37">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="P37">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="Q37">
+        <v>1142.643061629407</v>
+      </c>
+      <c r="R37">
+        <v>10283.78755466466</v>
+      </c>
+      <c r="S37">
+        <v>0.001735742840131969</v>
+      </c>
+      <c r="T37">
+        <v>0.001735742840131969</v>
       </c>
     </row>
   </sheetData>
